--- a/www/mesures/3.0.0/StructureDefinition-mes-observation-head-circumference.xlsx
+++ b/www/mesures/3.0.0/StructureDefinition-mes-observation-head-circumference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3647" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="656">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:26:47+01:00</t>
+    <t>2023-03-22T16:32:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -322,329 +322,326 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>Observation.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Observation.meta.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Uri identifiant les systèmes tiers ayant envoyé la ressource.</t>
+  </si>
+  <si>
+    <t>Uri identifiant les systèmes tiers ayant envoyé la ressource.
+L’uri est sous la forme d’un oid : « urn:oid:xx.xx.xx »</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Observation.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Observation.meta.profile:MesObservationHeadCircumference</t>
+  </si>
+  <si>
+    <t>Observation.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Observation.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension:supportingInfo</t>
+  </si>
+  <si>
+    <t>supportingInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {workflow-supportingInfo}
+</t>
+  </si>
+  <si>
+    <t>Other information that may be relevant to this event.</t>
+  </si>
+  <si>
+    <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Observation.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Uri identifiant les systèmes tiers ayant envoyé la ressource.</t>
-  </si>
-  <si>
-    <t>Uri identifiant les systèmes tiers ayant envoyé la ressource.
-L’uri est sous la forme d’un oid : « urn:oid:xx.xx.xx »</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:$this}
-</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile:MesObservationHeadCircumference</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension:supportingInfo</t>
-  </si>
-  <si>
-    <t>supportingInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {workflow-supportingInfo}
-</t>
-  </si>
-  <si>
-    <t>Other information that may be relevant to this event.</t>
-  </si>
-  <si>
-    <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
-  </si>
-  <si>
     <t>Observation.extension:MesReasonForMeasurement</t>
   </si>
   <si>
@@ -668,7 +665,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -719,14 +716,7 @@
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -755,7 +745,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -783,9 +773,6 @@
   </si>
   <si>
     <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
@@ -835,9 +822,6 @@
 value:coding.system}</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
@@ -965,9 +949,6 @@
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
@@ -1229,7 +1210,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1287,14 +1268,14 @@
     <t>Often just a dateTime for Vital Signs.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
-    <t>ele-1
-vs-1</t>
+    <t xml:space="preserve">vs-1
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1322,7 +1303,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1372,7 +1353,7 @@
     <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
   </si>
   <si>
     <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
@@ -1385,8 +1366,8 @@
     <t>closed</t>
   </si>
   <si>
-    <t>ele-1
-obs-7vs-2</t>
+    <t>obs-7
+vs-2</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -1528,17 +1509,14 @@
     <t>The identification of the system that provides the coded form of the unit.</t>
   </si>
   <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
-  </si>
-  <si>
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>Quantity.system</t>
   </si>
   <si>
-    <t>ele-1
-qty-3</t>
+    <t xml:space="preserve">qty-3
+</t>
   </si>
   <si>
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
@@ -1590,8 +1568,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>ele-1
-obs-6vs-2</t>
+    <t>obs-6
+vs-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1669,7 +1647,7 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1838,15 +1816,8 @@
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1
-obs-3</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t xml:space="preserve">obs-3
+</t>
   </si>
   <si>
     <t>OBX-7</t>
@@ -1934,17 +1905,7 @@
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
   </si>
   <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
     <t>Some analytes vary greatly over age.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=PRCN].targetObservationCriterion[code="age"].value</t>
@@ -1975,7 +1936,7 @@
     <t>Used when reporting vital signs panel components.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1997,7 +1958,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -2009,7 +1970,7 @@
     <t>Used when reporting systolic and diastolic blood pressure.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
@@ -2066,7 +2027,7 @@
     <t>Vital Sign Value recorded with UCUM.</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Common UCUM units for recording Vital Signs.</t>
@@ -2075,8 +2036,8 @@
     <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
   </si>
   <si>
-    <t>ele-1
-vs-3</t>
+    <t xml:space="preserve">vs-3
+</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2095,8 +2056,8 @@
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
   </si>
   <si>
-    <t>ele-1
-obs-6vs-3</t>
+    <t>obs-6
+vs-3</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -2930,7 +2891,7 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2945,7 +2906,7 @@
         <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AO4" t="s" s="2">
         <v>78</v>
@@ -2956,10 +2917,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2982,13 +2943,13 @@
         <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3039,7 +3000,7 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -3063,7 +3024,7 @@
         <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>78</v>
@@ -3074,14 +3035,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3100,16 +3061,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3147,19 +3108,19 @@
         <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -3168,10 +3129,10 @@
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -3183,7 +3144,7 @@
         <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>78</v>
@@ -3194,10 +3155,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3223,13 +3184,13 @@
         <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3279,7 +3240,7 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -3288,10 +3249,10 @@
         <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -3303,7 +3264,7 @@
         <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>78</v>
@@ -3314,10 +3275,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3340,16 +3301,16 @@
         <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3399,7 +3360,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -3408,10 +3369,10 @@
         <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -3423,7 +3384,7 @@
         <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>78</v>
@@ -3434,10 +3395,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3460,16 +3421,16 @@
         <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3519,7 +3480,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -3528,10 +3489,10 @@
         <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -3543,7 +3504,7 @@
         <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>78</v>
@@ -3554,10 +3515,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3580,16 +3541,16 @@
         <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3627,17 +3588,17 @@
         <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3646,10 +3607,10 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -3661,7 +3622,7 @@
         <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>78</v>
@@ -3672,10 +3633,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>7</v>
@@ -3700,16 +3661,16 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3759,7 +3720,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3768,10 +3729,10 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -3783,7 +3744,7 @@
         <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3794,10 +3755,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3820,16 +3781,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3855,31 +3816,31 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Z12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3888,10 +3849,10 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3900,10 +3861,10 @@
         <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>78</v>
@@ -3914,10 +3875,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3940,16 +3901,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3975,13 +3936,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3999,7 +3960,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -4008,10 +3969,10 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -4020,10 +3981,10 @@
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>78</v>
@@ -4034,10 +3995,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4060,16 +4021,16 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4119,7 +4080,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -4128,10 +4089,10 @@
         <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -4143,7 +4104,7 @@
         <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -4154,10 +4115,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4180,16 +4141,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4215,13 +4176,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -4239,7 +4200,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -4248,10 +4209,10 @@
         <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -4263,7 +4224,7 @@
         <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -4274,14 +4235,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4300,16 +4261,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4359,7 +4320,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -4368,10 +4329,10 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -4383,7 +4344,7 @@
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -4394,14 +4355,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4420,16 +4381,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4479,7 +4440,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -4503,7 +4464,7 @@
         <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -4514,14 +4475,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4540,17 +4501,15 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4587,19 +4546,17 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC18" s="2"/>
+      <c r="AD18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC18" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -4608,10 +4565,10 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -4623,7 +4580,7 @@
         <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -4634,13 +4591,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
@@ -4662,13 +4619,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4719,7 +4676,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -4728,10 +4685,10 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -4743,7 +4700,7 @@
         <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -4754,13 +4711,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -4782,13 +4739,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4839,7 +4796,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4848,10 +4805,10 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
@@ -4874,14 +4831,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4900,19 +4857,19 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4949,19 +4906,19 @@
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4970,10 +4927,10 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -4985,7 +4942,7 @@
         <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4996,10 +4953,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5022,17 +4979,17 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -5081,7 +5038,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -5090,25 +5047,25 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>78</v>
@@ -5116,14 +5073,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5142,19 +5099,17 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -5203,7 +5158,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -5212,22 +5167,22 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -5238,14 +5193,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5264,16 +5219,16 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5323,7 +5278,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -5332,22 +5287,22 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -5358,10 +5313,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5384,19 +5339,19 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -5421,13 +5376,11 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -5445,7 +5398,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
@@ -5454,25 +5407,25 @@
         <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>78</v>
@@ -5480,10 +5433,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5506,19 +5459,19 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -5543,29 +5496,29 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5574,10 +5527,10 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -5586,13 +5539,13 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>78</v>
@@ -5600,13 +5553,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
@@ -5628,19 +5581,19 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5665,13 +5618,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5689,7 +5642,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -5698,10 +5651,10 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -5710,13 +5663,13 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>78</v>
@@ -5724,10 +5677,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5750,13 +5703,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5807,7 +5760,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5831,7 +5784,7 @@
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5842,14 +5795,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5868,16 +5821,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5915,19 +5868,19 @@
         <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5936,10 +5889,10 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -5951,7 +5904,7 @@
         <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5962,10 +5915,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5988,19 +5941,19 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -6049,7 +6002,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -6058,10 +6011,10 @@
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -6070,10 +6023,10 @@
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -6084,10 +6037,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6110,13 +6063,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6167,7 +6120,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -6191,7 +6144,7 @@
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -6202,14 +6155,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6228,16 +6181,16 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6275,19 +6228,19 @@
         <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -6296,10 +6249,10 @@
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -6311,7 +6264,7 @@
         <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -6322,10 +6275,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6348,26 +6301,26 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>78</v>
@@ -6409,7 +6362,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -6418,10 +6371,10 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -6430,10 +6383,10 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -6444,10 +6397,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6470,16 +6423,16 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6529,7 +6482,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6538,10 +6491,10 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -6550,10 +6503,10 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6564,10 +6517,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6590,26 +6543,24 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>78</v>
@@ -6651,7 +6602,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6660,10 +6611,10 @@
         <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -6672,10 +6623,10 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6686,10 +6637,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6712,19 +6663,17 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6773,7 +6722,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6782,10 +6731,10 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -6794,10 +6743,10 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6808,10 +6757,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6834,19 +6783,19 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6895,7 +6844,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6904,10 +6853,10 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6916,10 +6865,10 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6930,10 +6879,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6956,19 +6905,19 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -7017,7 +6966,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -7026,10 +6975,10 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -7038,10 +6987,10 @@
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -7052,14 +7001,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -7078,19 +7027,19 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -7100,7 +7049,7 @@
         <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>78</v>
@@ -7115,13 +7064,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -7139,7 +7088,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>88</v>
@@ -7148,36 +7097,36 @@
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7200,13 +7149,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7257,7 +7206,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -7281,7 +7230,7 @@
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -7292,14 +7241,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7318,16 +7267,16 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7365,19 +7314,19 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC41" t="s" s="2">
+      <c r="AF41" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -7386,10 +7335,10 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -7401,7 +7350,7 @@
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -7412,10 +7361,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7438,19 +7387,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -7487,17 +7436,17 @@
         <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -7506,10 +7455,10 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
@@ -7518,10 +7467,10 @@
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7532,13 +7481,13 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>78</v>
@@ -7560,19 +7509,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7621,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7630,10 +7579,10 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -7642,10 +7591,10 @@
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7656,10 +7605,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7682,13 +7631,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7739,7 +7688,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7763,7 +7712,7 @@
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7774,14 +7723,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7800,16 +7749,16 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7847,19 +7796,19 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC45" t="s" s="2">
+      <c r="AF45" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7868,10 +7817,10 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7883,7 +7832,7 @@
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7894,10 +7843,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7920,19 +7869,19 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7942,7 +7891,7 @@
         <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>78</v>
@@ -7981,7 +7930,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7990,10 +7939,10 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -8002,10 +7951,10 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -8016,10 +7965,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8042,16 +7991,16 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8101,7 +8050,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -8110,10 +8059,10 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -8122,10 +8071,10 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -8136,10 +8085,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8162,19 +8111,17 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -8223,7 +8170,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -8232,10 +8179,10 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -8244,10 +8191,10 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -8258,10 +8205,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8284,19 +8231,17 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -8345,7 +8290,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -8354,10 +8299,10 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -8366,10 +8311,10 @@
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -8380,10 +8325,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8406,19 +8351,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -8467,7 +8412,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -8476,10 +8421,10 @@
         <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -8488,10 +8433,10 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -8502,10 +8447,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8528,19 +8473,19 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -8589,7 +8534,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -8598,10 +8543,10 @@
         <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -8610,10 +8555,10 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -8624,10 +8569,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8650,19 +8595,19 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -8711,7 +8656,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8720,25 +8665,25 @@
         <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>78</v>
@@ -8746,10 +8691,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8772,16 +8717,16 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8831,7 +8776,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8840,10 +8785,10 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -8852,13 +8797,13 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>78</v>
@@ -8866,14 +8811,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8892,19 +8837,19 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8953,7 +8898,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8962,25 +8907,25 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>78</v>
@@ -8988,14 +8933,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -9014,19 +8959,19 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -9075,7 +9020,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -9084,25 +9029,25 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>78</v>
@@ -9110,10 +9055,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9136,16 +9081,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9195,7 +9140,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -9204,10 +9149,10 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -9216,13 +9161,13 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>78</v>
@@ -9230,10 +9175,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9256,19 +9201,17 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -9317,7 +9260,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -9326,25 +9269,25 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>78</v>
@@ -9352,10 +9295,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9378,19 +9321,19 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -9427,17 +9370,17 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -9446,39 +9389,39 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
@@ -9500,19 +9443,19 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -9522,7 +9465,7 @@
         <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>78</v>
@@ -9561,7 +9504,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -9570,36 +9513,36 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9622,13 +9565,13 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9679,7 +9622,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -9703,7 +9646,7 @@
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -9714,14 +9657,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9740,16 +9683,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9787,19 +9730,19 @@
         <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE61" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC61" t="s" s="2">
+      <c r="AF61" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9808,10 +9751,10 @@
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9823,7 +9766,7 @@
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -9834,10 +9777,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9860,19 +9803,19 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9921,7 +9864,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9930,10 +9873,10 @@
         <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9942,10 +9885,10 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -9956,10 +9899,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9982,70 +9925,68 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q63" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q63" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -10054,10 +9995,10 @@
         <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
@@ -10066,10 +10007,10 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -10080,10 +10021,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10106,19 +10047,17 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -10128,7 +10067,7 @@
         <v>78</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>78</v>
@@ -10167,7 +10106,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -10176,10 +10115,10 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -10188,10 +10127,10 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -10202,10 +10141,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10228,19 +10167,17 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -10289,7 +10226,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -10298,10 +10235,10 @@
         <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -10310,10 +10247,10 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -10324,10 +10261,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10350,19 +10287,19 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -10411,7 +10348,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -10420,10 +10357,10 @@
         <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -10432,10 +10369,10 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>78</v>
@@ -10446,10 +10383,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10472,19 +10409,19 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -10509,13 +10446,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -10533,7 +10470,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -10542,10 +10479,10 @@
         <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -10554,10 +10491,10 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>78</v>
@@ -10568,14 +10505,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10594,19 +10531,19 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -10631,13 +10568,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -10655,7 +10592,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -10664,36 +10601,36 @@
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10716,19 +10653,19 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10777,7 +10714,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -10786,10 +10723,10 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -10798,10 +10735,10 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -10812,10 +10749,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10838,16 +10775,16 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10873,13 +10810,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10897,7 +10834,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10906,36 +10843,36 @@
         <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10958,19 +10895,19 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10995,13 +10932,13 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>78</v>
@@ -11019,7 +10956,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -11028,10 +10965,10 @@
         <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -11040,10 +10977,10 @@
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>78</v>
@@ -11054,10 +10991,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11080,16 +11017,16 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11139,7 +11076,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -11148,36 +11085,36 @@
         <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11200,16 +11137,16 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11259,7 +11196,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -11268,36 +11205,36 @@
         <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11320,19 +11257,19 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -11381,7 +11318,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -11390,10 +11327,10 @@
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -11402,10 +11339,10 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>78</v>
@@ -11416,10 +11353,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11442,13 +11379,13 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11499,7 +11436,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -11523,7 +11460,7 @@
         <v>78</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>78</v>
@@ -11534,14 +11471,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11560,16 +11497,16 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11607,19 +11544,19 @@
         <v>78</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF76" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -11628,10 +11565,10 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -11643,7 +11580,7 @@
         <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>78</v>
@@ -11654,14 +11591,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11680,19 +11617,19 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -11741,7 +11678,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -11750,10 +11687,10 @@
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11765,7 +11702,7 @@
         <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>78</v>
@@ -11776,10 +11713,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11802,17 +11739,15 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -11861,7 +11796,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11870,10 +11805,10 @@
         <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>585</v>
+        <v>122</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -11882,10 +11817,10 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>78</v>
@@ -11896,10 +11831,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11922,17 +11857,15 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>589</v>
-      </c>
       <c r="M79" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11981,7 +11914,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -11990,10 +11923,10 @@
         <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>585</v>
+        <v>122</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -12002,10 +11935,10 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>78</v>
@@ -12016,10 +11949,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12042,19 +11975,19 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -12079,13 +12012,13 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -12103,7 +12036,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -12112,22 +12045,22 @@
         <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>78</v>
@@ -12138,10 +12071,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12164,19 +12097,19 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -12201,13 +12134,13 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>78</v>
@@ -12225,7 +12158,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -12234,22 +12167,22 @@
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>78</v>
@@ -12260,10 +12193,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12286,19 +12219,17 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -12347,7 +12278,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -12356,10 +12287,10 @@
         <v>88</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>614</v>
+        <v>122</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
@@ -12368,10 +12299,10 @@
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>615</v>
+        <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>78</v>
@@ -12382,10 +12313,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12408,17 +12339,15 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -12467,7 +12396,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -12476,10 +12405,10 @@
         <v>88</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -12488,10 +12417,10 @@
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>78</v>
@@ -12502,10 +12431,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12528,16 +12457,16 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12587,7 +12516,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -12596,10 +12525,10 @@
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -12608,10 +12537,10 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>78</v>
@@ -12622,10 +12551,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12648,16 +12577,16 @@
         <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12707,7 +12636,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -12716,10 +12645,10 @@
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12728,10 +12657,10 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>78</v>
@@ -12742,10 +12671,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12768,19 +12697,19 @@
         <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>78</v>
@@ -12829,7 +12758,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -12838,10 +12767,10 @@
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -12850,10 +12779,10 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>78</v>
@@ -12864,10 +12793,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12890,13 +12819,13 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12947,7 +12876,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12971,7 +12900,7 @@
         <v>78</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>78</v>
@@ -12982,14 +12911,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -13008,16 +12937,16 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -13055,19 +12984,19 @@
         <v>78</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -13076,10 +13005,10 @@
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
@@ -13091,7 +13020,7 @@
         <v>78</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>78</v>
@@ -13102,14 +13031,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13128,19 +13057,19 @@
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -13189,7 +13118,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -13198,10 +13127,10 @@
         <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -13213,7 +13142,7 @@
         <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>78</v>
@@ -13224,10 +13153,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13250,19 +13179,19 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>78</v>
@@ -13287,13 +13216,13 @@
         <v>78</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>78</v>
@@ -13311,7 +13240,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>88</v>
@@ -13320,25 +13249,25 @@
         <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>78</v>
@@ -13346,10 +13275,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13372,19 +13301,19 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -13409,13 +13338,13 @@
         <v>78</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>78</v>
@@ -13433,7 +13362,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -13442,36 +13371,36 @@
         <v>88</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13494,19 +13423,19 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -13531,13 +13460,13 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>78</v>
@@ -13555,7 +13484,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -13564,10 +13493,10 @@
         <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
@@ -13576,10 +13505,10 @@
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>78</v>
@@ -13590,14 +13519,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13616,19 +13545,19 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>78</v>
@@ -13653,13 +13582,13 @@
         <v>78</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>78</v>
@@ -13677,7 +13606,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -13686,36 +13615,36 @@
         <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13741,16 +13670,16 @@
         <v>79</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
@@ -13799,7 +13728,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
@@ -13811,7 +13740,7 @@
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -13820,10 +13749,10 @@
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>78</v>
